--- a/data/每日优鲜测试用例（蒲美玲）.xlsx
+++ b/data/每日优鲜测试用例（蒲美玲）.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>文件编号：CD HEAD TC-1.0-2016</t>
   </si>
@@ -289,7 +289,40 @@
     <t>蒲美玲</t>
   </si>
   <si>
-    <t>MissFresh_automate002</t>
+    <t>首页搜索商品进行购买</t>
+  </si>
+  <si>
+    <t>未登录状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、点击【同意】协议
+2、点击【取消】安装
+3、滑动屏幕浏览商品
+4、点击搜索框
+5、输入关键字
+6、点击【搜索】
+7、点击第一个商品
+8、滑动屏幕浏览商品详情
+9、点击【加入购物车】
+10、点击【购物车】
+11、点击【去结算】
+12、点击【去支付】
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、成功同意协议
+2、取消安装华为服务
+3、屏幕滑动并展示相应商品
+4、进入搜索页面
+5、显示输入的关键字
+6、搜索出相应商品
+7、进入商品详情页面
+8、屏幕滑动并展示商品详情
+9、成功将商品加入购物车
+10、成功进入购物车页面
+11、成功进入结算页面
+12、成功进入支付页面
+</t>
   </si>
   <si>
     <t>MissFresh_automate003</t>
@@ -2028,8 +2061,8 @@
   <sheetPr/>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -2229,20 +2262,34 @@
       <c r="M7" s="4"/>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" ht="36" spans="1:14">
+    <row r="8" ht="345" spans="1:14">
       <c r="A8" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -2251,7 +2298,7 @@
     </row>
     <row r="9" ht="36" spans="1:14">
       <c r="A9" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>47</v>
@@ -2271,7 +2318,7 @@
     </row>
     <row r="10" ht="36" spans="1:14">
       <c r="A10" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>47</v>
@@ -2291,7 +2338,7 @@
     </row>
     <row r="11" ht="36" spans="1:14">
       <c r="A11" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>47</v>
@@ -2346,7 +2393,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H10 H11:H12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7 H8 H9:H10 H11:H12">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>
